--- a/resources/STTM_v21.xlsx
+++ b/resources/STTM_v21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santoshkotagiri/Documents/git-workspace/confluent-data-ingestion/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCACE2B-D6FF-D145-91D9-D10187927A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA417F0-BE5D-8D40-91D0-C196684BFF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STTM_Mapping" sheetId="1" r:id="rId1"/>
@@ -1499,9 +1499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
